--- a/data_set_key.xlsx
+++ b/data_set_key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M209033\Documents\GitHub\group_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE722079-5925-4EA5-852A-BE8C86117095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892FA4FD-DF70-4475-B3FA-61374C9F07B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5C3CD9E-C7DF-49BE-A9A2-E5828A74954D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{D5C3CD9E-C7DF-49BE-A9A2-E5828A74954D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>3. chest pain type (4 values)</t>
   </si>
@@ -170,6 +170,15 @@
   </si>
   <si>
     <t>2. sex</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
   </si>
 </sst>
 </file>
@@ -536,17 +545,17 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="87.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7265625" customWidth="1"/>
+    <col min="2" max="2" width="87.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -572,7 +581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -582,8 +591,11 @@
       <c r="C2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -593,8 +605,14 @@
       <c r="C3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -605,7 +623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -616,7 +634,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -627,7 +645,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -638,7 +656,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -649,7 +667,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -660,7 +678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -671,7 +689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -682,7 +700,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -693,7 +711,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -704,7 +722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -715,7 +733,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="28" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
